--- a/layout_map.xlsx
+++ b/layout_map.xlsx
@@ -598,7 +598,7 @@
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
